--- a/biology/Botanique/Route_touristique_du_Champagne/Route_touristique_du_Champagne.xlsx
+++ b/biology/Botanique/Route_touristique_du_Champagne/Route_touristique_du_Champagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les routes touristiques du Champagne constituent un ensemble de circuits fléchés permettant de découvrir le vignoble champenois et de nombreux points d'intérêts touristiques.
 Ces circuits sont au nombre de six :
@@ -518,7 +530,9 @@
           <t>Côte des bar</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Côte des bar est situé dans l'Aube au sud de la Champagne. Circuit fermé passant par Bar-sur-Seine et Bar-sur-Aube.
 Communes traversées : Arconville, Arrentières, Avirey-Lingey, Bagneux-la-Fosse, Baroville, Bar-sur-Aube, Bar-sur-Seine, Bayel, Bergeres, Bertignolles, Bligny, Bragelogne-Beauvoir, Buxeuil, Buxières-sur-Arce, Celles-sur-Ource, Champignol-lez-Mondeville, Channes, Chassenay, Colombé-la-Fosse, Colombé-le-Sec, Courteron, Dolancourt, Essoyes, Fontette, Gyé-sur-Seine, Landreville, Les Riceys, Lignol-le-Château, Loches-sur-Ource, Meurville, Neuville-sur-Seine, Noé-les-Mallets, Polisot, Polisy, Proverville, Rizaucourt-Buchey, Rouvres-les-vignes, Urville, Ville-sur-Arce, Viviers-sur-Artaut, Voigny</t>
@@ -549,7 +563,9 @@
           <t>Côte des Blancs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Côte des Blancs, berceau du Chardonnay : ses villages sont bâtis en amphithéâtre sur le flanc des collines.  
 Communes traversées : Allemant, Avize, Barbonne-Fayel, Bergères-lès-Vertus, Broyes, Chantemerle, Chavot-Courcourt, Chouilly, Coizard-Joches, Congy, Courjeonnet, Cramant, Cuis, Épernay, Etoges, Fèrebrianges, Fontaine-Denis-Nuisy, La Celle-sous-Chantemerle, Le Mesnil-sur-Oger, Mancy, Mondement-Montgivroux, Montgenost, Monthelon, Morangis, Moslins, Moussy, Oger, Oyes, Pierry, Reuves, Saudoy, Sézanne, Val-des-Marais, Vert-Toulon, Vertus, Villenauxe-la-Grande, Villevenard, Vindey</t>
@@ -580,7 +596,9 @@
           <t>Massif de Saint Thierry</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vignobles et forêts forment dans le Massif de Saint-Thierry un ensemble de verdure.
 Communes traversées : Bouffignereux, Bouvancourt, Brouillet, Cauroy-lès-Hermonville, Châlons-sur-Vesle, Champigny, Chenay, Cormicy, Gueux, Guyencourt, Hermonville, Jonchery-sur-Vesle, Merfy, Montigny-sur-Vesle, Pévy, Prouilly, Reims, Savigny-sur-Ardres, Saint-Thierry, Serzy-et-Prin, Thil, Tinqueux, Trigny, Vandeuil, Ventelay, Villers-Franqueux</t>
@@ -611,7 +629,9 @@
           <t>Montagne de Reims</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Au départ de Reims ou d'Épernay, 70 kilomètres à parcourir au cœur d'un parc naturel régional.
 Communes traversées : Ambonnay, Avenay-Val-d'Or, Aÿ, Bouzy, Chamery, Chigny-les-Roses, Condé-sur-Marne, Coulommes-la-Montagne, Ecueil, Épernay, Fontaine-sur-Aÿ, Gueux, Jouy-lès-Reims, Louvois, Ludes, Mailly-Champagne, Mareuil-sur-Aÿ, Mutigny, Pargny-lès-Reims, Reims, Rilly-la-Montagne, Sacy, Sermiers, Tauxières-Mutry, Trépail, Tinqueux, Tours-sur-Marne, Vaudemange, Verzenay, Verzy, Villedommange, Villers-Allerand, Villers-Marmery, Vrigny</t>
@@ -642,7 +662,9 @@
           <t>Vallée de la Marne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Au départ de Paris, sortie A4 n°19 suivre la rive gauche de la Marne, retour par la rive droite.
 Au départ d'Épernay, suivre la rive droite de la Marne, et retour par la rive gauche.
@@ -675,7 +697,9 @@
           <t>Voyageurs célèbres de ces circuits</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Urbain II en 1042,
 Louis IX de France en 1226,</t>
